--- a/pieces/2022-08-31 Other.xlsx
+++ b/pieces/2022-08-31 Other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\OneDrive\Github\Erg Scores Visual\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9FB55B6E-F581-4A34-B955-D6076E83F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7613C04D-2890-4315-AA8A-3FE8971EF4F4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9FB55B6E-F581-4A34-B955-D6076E83F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{965B1836-EB8A-4A1F-ADC0-A6450FB475EC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Rower 2</t>
+  </si>
+  <si>
+    <t>Rower 3</t>
+  </si>
+  <si>
+    <t>Rower 4</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,22 +496,62 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1655092592592589E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1944444444444439E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.209490740740741E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.252314814814815E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.261574074074074E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.1944444444444446E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.3182870370370371E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.230324074074074E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0972222222222223E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.3356481481481481E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>

--- a/pieces/2022-08-31 Other.xlsx
+++ b/pieces/2022-08-31 Other.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\OneDrive\Github\Erg Scores Visual\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9FB55B6E-F581-4A34-B955-D6076E83F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{965B1836-EB8A-4A1F-ADC0-A6450FB475EC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9FB55B6E-F581-4A34-B955-D6076E83F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{71A0AC64-8816-49C3-A061-6C34509EC348}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7-17-2022 1000m" sheetId="1" r:id="rId1"/>
+    <sheet name="8-31-2022 1000m" sheetId="1" r:id="rId1"/>
     <sheet name="Distance" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
